--- a/templates/Final/KeyDriver_Config_Template_Annotated_Final.xlsx
+++ b/templates/Final/KeyDriver_Config_Template_Annotated_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC25B5-EA73-C047-AAA4-39536C392ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9591EABA-DAD8-B14B-8794-EFCBBC91A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26980" yWindow="1260" windowWidth="23520" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="257">
   <si>
     <t>Setting</t>
   </si>
@@ -33,9 +33,6 @@
     <t>analysis_name</t>
   </si>
   <si>
-    <t>Brand Health Drivers</t>
-  </si>
-  <si>
     <t>VariableName</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>✅ Correct</t>
   </si>
   <si>
-    <t>Path to survey data</t>
-  </si>
-  <si>
-    <t>Path for output Excel</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -2882,13 +2873,34 @@
       </rPr>
       <t> No. The regression model is solid. It's just that one importance calculation method (Shapley) doesn't properly implement weighting. You still get 3 other methods that work correctly or approximately correctly.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Health Drivers - this is just a label for config file: Has no effect </t>
+  </si>
+  <si>
+    <t>Path for results Excel file. If not specified, creates keydriver_results.xlsx in config file directory.</t>
+  </si>
+  <si>
+    <t>Path to respondent data file. Supports CSV, XLSX, SAV, DTA formats. Can be relative to config file or absolute path.</t>
+  </si>
+  <si>
+    <t>To use weights, define a variable with Type = "Weight" in the Variables sheet (NOT in Settings)</t>
+  </si>
+  <si>
+    <t>If you add other settings to the Settings sheet, they will be loaded but ignored by the analysis code</t>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
+  </si>
+  <si>
+    <t>Key Driver Config Template - Instructions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3007,6 +3019,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF366092"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3055,7 +3080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3069,7 +3094,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3077,6 +3101,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3379,1039 +3407,1063 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D295C4-1407-3745-971B-D378589F06E5}">
-  <dimension ref="B4:D325"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
-        <v>70</v>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
-        <v>76</v>
+      <c r="B37" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="B87" s="12" t="s">
-        <v>108</v>
+      <c r="B87" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="14" t="s">
-        <v>109</v>
+      <c r="B89" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="14" t="s">
-        <v>111</v>
+      <c r="B95" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="13" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="16" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B109" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="16" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="14" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="14" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="14" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="14" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="16" t="s">
+    <row r="133" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B133" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="14" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B133" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="17" t="s">
-        <v>121</v>
+      <c r="B137" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="16" t="s">
-        <v>126</v>
+      <c r="B142" s="15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="14" t="s">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="14" t="s">
+    <row r="155" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B155" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="14" t="s">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="14" t="s">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="12" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B155" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="13" t="s">
-        <v>146</v>
+      <c r="B162" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="13" t="s">
-        <v>149</v>
+      <c r="B166" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="16" t="s">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="14" t="s">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" s="15" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="12" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B181" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="13" t="s">
-        <v>162</v>
+      <c r="B189" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="14" t="s">
+    <row r="200" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B200" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="14" t="s">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="14" t="s">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="12" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B200" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="13" t="s">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="13" t="s">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" s="16" t="s">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="14" t="s">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="14" t="s">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" s="15" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B220" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="16" t="s">
-        <v>180</v>
+      <c r="B222" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="16" t="s">
-        <v>181</v>
+      <c r="B224" s="15" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="16" t="s">
-        <v>184</v>
+      <c r="B229" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" s="16" t="s">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" s="16" t="s">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B237" s="16" t="s">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" s="15" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" s="16" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="244" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B244" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245" s="14"/>
+      <c r="B245" s="13"/>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B253" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C251" s="5" t="s">
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B255" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D251" s="5" t="s">
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B256" s="15" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B253" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B255" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B256" s="16" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="259" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B259" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" s="16" t="s">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B262" s="14" t="s">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" s="15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B263" s="14" t="s">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" s="15" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B264" s="14" t="s">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B265" s="16" t="s">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B266" s="16" t="s">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B267" s="14" t="s">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" s="15" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B268" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B270" s="16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B274" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" s="16" t="s">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="14" t="s">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" s="14" t="s">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B279" s="14" t="s">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" s="13" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B280" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B282" s="14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="286" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B286" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B288" s="16" t="s">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" s="14" t="s">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="14" t="s">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B293" s="14" t="s">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B294" s="14" t="s">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="14" t="s">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B297" s="14" t="s">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" s="14" t="s">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="14" t="s">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305" s="13" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B302" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B304" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B305" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="309" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B309" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B311" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B313" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B314" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B311" s="14" t="s">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B315" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B313" s="16" t="s">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B317" s="13" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B314" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B315" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B317" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="321" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B321" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B323" s="16" t="s">
-        <v>251</v>
+      <c r="B323" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B325" s="16" t="s">
-        <v>252</v>
+      <c r="B325" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4424,9 +4476,9 @@
     <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4434,7 +4486,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4442,65 +4494,87 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4512,7 +4586,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4525,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4533,16 +4607,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4565,87 +4639,87 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -4653,58 +4727,58 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -4715,31 +4789,31 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
-        <v>48</v>
+      <c r="B25" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
-        <v>49</v>
+      <c r="B26" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>50</v>
+      <c r="B27" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
